--- a/Theodora Kondova/Bugs/Bug Example.xlsx
+++ b/Theodora Kondova/Bugs/Bug Example.xlsx
@@ -210,8 +210,9 @@
   <si>
     <t>1. Open the travel site https://phptravels.com/demo/.
 2. Press Login.
-3. Enter valid credential
+3. Enter valid credentials (ex: username-test@abv.bg ; password-12345qwertyu)
 4. Tick "I`m not a robot" button
+5. Press Login button
 5. Press "Update" under Your Info section
 6. Press "Contacts/Sub-Accounts"
 Expected result:
@@ -1546,8 +1547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1610,7 +1611,7 @@
       </c>
       <c r="B8" s="3"/>
     </row>
-    <row r="9" spans="1:2" ht="180">
+    <row r="9" spans="1:2" ht="195">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
